--- a/resultados/resultados.xlsx
+++ b/resultados/resultados.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\neolegibilitymodel\resultados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\Neo_Legibility_Python\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE2F336-E3A0-4F05-96E1-8206EC68FCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC7E64E-0482-4585-81D3-700392A6CF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16770" yWindow="1575" windowWidth="9645" windowHeight="11385" xr2:uid="{58AA8566-A234-4FC9-92D1-E45FE860CDCA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="v1 leg sub pos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -96,10 +96,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,7 +438,7 @@
   <dimension ref="B6:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,10 +448,10 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -460,7 +460,7 @@
       <c r="C8">
         <v>15</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f>C8/C14</f>
         <v>0.45454545454545453</v>
       </c>
@@ -472,7 +472,7 @@
       <c r="C9">
         <v>10</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <f>C9/C14</f>
         <v>0.30303030303030304</v>
       </c>
@@ -484,7 +484,7 @@
       <c r="C10">
         <v>4</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <f>C10/C14</f>
         <v>0.12121212121212122</v>
       </c>
@@ -496,7 +496,7 @@
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <f>C11/C14</f>
         <v>0.12121212121212122</v>
       </c>
